--- a/appendix/mean_precision_macro.xlsx
+++ b/appendix/mean_precision_macro.xlsx
@@ -525,7 +525,7 @@
         <v>0.528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.482</v>
+        <v>0.478</v>
       </c>
       <c r="H3" t="n">
         <v>0.519</v>

--- a/appendix/mean_precision_macro.xlsx
+++ b/appendix/mean_precision_macro.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.382</v>
+        <v>0.396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.488</v>
+        <v>0.498</v>
       </c>
       <c r="E5" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.574</v>
+        <v>0.588</v>
       </c>
       <c r="G5" t="n">
-        <v>0.549</v>
+        <v>0.57</v>
       </c>
       <c r="H5" t="n">
-        <v>0.586</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.393</v>
+        <v>0.396</v>
       </c>
       <c r="D7" t="n">
         <v>0.508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.574</v>
+        <v>0.588</v>
       </c>
       <c r="G7" t="n">
         <v>0.574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.586</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.61</v>
+        <v>0.602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.65</v>
+        <v>0.638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.634</v>
       </c>
       <c r="H8" t="n">
-        <v>0.658</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.496</v>
+        <v>0.46</v>
       </c>
       <c r="C9" t="n">
-        <v>0.491</v>
+        <v>0.495</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="E9" t="n">
-        <v>0.593</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0.62</v>
       </c>
       <c r="G9" t="n">
-        <v>0.581</v>
+        <v>0.577</v>
       </c>
       <c r="H9" t="n">
-        <v>0.614</v>
+        <v>0.609</v>
       </c>
     </row>
   </sheetData>
